--- a/datasheets/Daux_et_al_2008.xlsx
+++ b/datasheets/Daux_et_al_2008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="82">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homo sapiens</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/j.jhevol.2008.06.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daux et al. (2008)</t>
   </si>
   <si>
     <t xml:space="preserve">Algiers</t>
@@ -377,31 +383,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,10 +428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR91"/>
+  <dimension ref="A1:AS91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR2" activeCellId="0" sqref="AR2:AR39"/>
+      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2:AS39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -457,10 +463,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="54.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="24.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="45" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="46" style="1" width="11.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,40 +600,43 @@
       <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>18.8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>21.7</v>
@@ -690,45 +700,48 @@
         <v>-2.2</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>18.5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>21.7</v>
@@ -792,45 +805,48 @@
         <v>-2.2</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>18.2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>21.7</v>
@@ -894,45 +910,48 @@
         <v>-2.2</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>17.5</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>21.7</v>
@@ -996,45 +1015,48 @@
         <v>-5</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>16.7</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="5" t="n">
         <v>21.7</v>
@@ -1098,45 +1120,48 @@
         <v>-5</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>21.7</v>
@@ -1200,45 +1225,48 @@
         <v>-5</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>18.2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>21.7</v>
@@ -1302,45 +1330,48 @@
         <v>-9.1</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>18.4</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>21.7</v>
@@ -1404,45 +1435,48 @@
         <v>-9.1</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.7</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="5" t="n">
         <v>21.7</v>
@@ -1506,45 +1540,48 @@
         <v>-9.1</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>17.6</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>21.7</v>
@@ -1608,45 +1645,48 @@
         <v>-9.1</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>16.9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" s="5" t="n">
         <v>21.7</v>
@@ -1710,45 +1750,48 @@
         <v>-7.6</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>17</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>21.7</v>
@@ -1812,45 +1855,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>21.7</v>
@@ -1914,45 +1960,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>21.7</v>
@@ -2016,45 +2065,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>16.3</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>21.7</v>
@@ -2118,45 +2170,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>16.2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>21.7</v>
@@ -2220,45 +2275,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>16.4</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N18" s="5" t="n">
         <v>21.7</v>
@@ -2322,45 +2380,48 @@
         <v>-12.3</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>18.3</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>21.7</v>
@@ -2424,45 +2485,48 @@
         <v>-7.8</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>17.3</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>21.7</v>
@@ -2526,45 +2590,48 @@
         <v>-9.4</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N21" s="5" t="n">
         <v>21.7</v>
@@ -2628,45 +2695,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15.9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>21.7</v>
@@ -2730,45 +2800,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>16.6</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N23" s="5" t="n">
         <v>21.7</v>
@@ -2832,45 +2905,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>16.5</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N24" s="5" t="n">
         <v>21.7</v>
@@ -2934,45 +3010,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>16.5</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N25" s="5" t="n">
         <v>21.7</v>
@@ -3036,45 +3115,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>17.5</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>21.7</v>
@@ -3138,45 +3220,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>16.9</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N27" s="5" t="n">
         <v>21.7</v>
@@ -3240,45 +3325,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>16.7</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28" s="5" t="n">
         <v>21.7</v>
@@ -3342,45 +3430,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>16.5</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N29" s="5" t="n">
         <v>21.7</v>
@@ -3444,45 +3535,48 @@
         <v>-9.2</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>16.4</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N30" s="5" t="n">
         <v>21.7</v>
@@ -3546,45 +3640,48 @@
         <v>-12.9</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>14.1</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N31" s="5" t="n">
         <v>21.7</v>
@@ -3648,45 +3745,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>15</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N32" s="5" t="n">
         <v>21.7</v>
@@ -3751,45 +3851,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>15.3</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N33" s="5" t="n">
         <v>21.7</v>
@@ -3854,45 +3957,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>14.4</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N34" s="5" t="n">
         <v>21.7</v>
@@ -3957,45 +4063,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>15.3</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N35" s="5" t="n">
         <v>21.7</v>
@@ -4060,45 +4169,48 @@
         <v>-16.1</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>15.1</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N36" s="5" t="n">
         <v>21.7</v>
@@ -4162,52 +4274,55 @@
         <v>-13.5</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>12.3</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N37" s="5" t="n">
         <v>21.7</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>70</v>
@@ -4264,52 +4379,55 @@
         <v>-28</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>12.5</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N38" s="5" t="n">
         <v>21.7</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V38" s="6" t="n">
         <v>70</v>
@@ -4366,52 +4484,55 @@
         <v>-28</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>11</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N39" s="5" t="n">
         <v>21.7</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V39" s="6" t="n">
         <v>70</v>
@@ -4468,10 +4589,13 @@
         <v>-28</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Daux_et_al_2008.xlsx
+++ b/datasheets/Daux_et_al_2008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="83">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">M1, M2 tooth ; Tap Water ; OIPC; Daux et al., 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daux et al. (2005)</t>
   </si>
   <si>
     <t xml:space="preserve">Bordeaux</t>
@@ -430,8 +433,8 @@
   </sheetPr>
   <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2:AS39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS31" activeCellId="0" sqref="AS31:AS35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1861,7 +1864,7 @@
         <v>56</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1969,7 @@
         <v>56</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,7 +2074,7 @@
         <v>56</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2179,7 @@
         <v>56</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,7 +2284,7 @@
         <v>56</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2389,7 @@
         <v>56</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2406,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>66</v>
@@ -2508,7 +2511,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>66</v>
@@ -2613,10 +2616,10 @@
         <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>51</v>
@@ -2718,10 +2721,10 @@
         <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>51</v>
@@ -2823,10 +2826,10 @@
         <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>51</v>
@@ -2928,10 +2931,10 @@
         <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>51</v>
@@ -3033,10 +3036,10 @@
         <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>51</v>
@@ -3138,10 +3141,10 @@
         <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>51</v>
@@ -3243,10 +3246,10 @@
         <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>51</v>
@@ -3348,10 +3351,10 @@
         <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>51</v>
@@ -3453,10 +3456,10 @@
         <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>51</v>
@@ -3558,10 +3561,10 @@
         <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>51</v>
@@ -3663,10 +3666,10 @@
         <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>51</v>
@@ -3751,7 +3754,7 @@
         <v>56</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +3771,10 @@
         <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>51</v>
@@ -3857,7 +3860,7 @@
         <v>56</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,10 +3877,10 @@
         <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>51</v>
@@ -3963,7 +3966,7 @@
         <v>56</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,10 +3983,10 @@
         <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>51</v>
@@ -4069,7 +4072,7 @@
         <v>56</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,10 +4089,10 @@
         <v>48</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>51</v>
@@ -4175,7 +4178,7 @@
         <v>56</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,10 +4195,10 @@
         <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>51</v>
@@ -4297,10 +4300,10 @@
         <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>51</v>
@@ -4322,7 +4325,7 @@
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>70</v>
@@ -4379,7 +4382,7 @@
         <v>-28</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR37" s="1" t="s">
         <v>56</v>
@@ -4402,10 +4405,10 @@
         <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>51</v>
@@ -4427,7 +4430,7 @@
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V38" s="6" t="n">
         <v>70</v>
@@ -4484,7 +4487,7 @@
         <v>-28</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR38" s="1" t="s">
         <v>56</v>
@@ -4507,10 +4510,10 @@
         <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>51</v>
@@ -4532,7 +4535,7 @@
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V39" s="6" t="n">
         <v>70</v>
@@ -4589,7 +4592,7 @@
         <v>-28</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR39" s="1" t="s">
         <v>56</v>
